--- a/ProcessedData/conf_rbf_SVM_video_2.xlsx
+++ b/ProcessedData/conf_rbf_SVM_video_2.xlsx
@@ -398,13 +398,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.124916748169564</v>
+        <v>0.1503821498838114</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6018802460233305</v>
+        <v>0.3280731546871168</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3557806951057793</v>
+        <v>0.5215446954290714</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -418,13 +418,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2069425394778235</v>
+        <v>0.2417869100785314</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1736803613175311</v>
+        <v>0.3981800938641382</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02272449180362933</v>
+        <v>0.3600329960573302</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -438,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3323557235169742</v>
+        <v>0.1809506401274182</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3638993838605361</v>
+        <v>0.3954150397627316</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1000307994999605</v>
+        <v>0.4236343201098503</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -458,13 +458,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3552021049533356</v>
+        <v>0.1543426496950635</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4751712165926495</v>
+        <v>0.3537801514461744</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3222264643398033</v>
+        <v>0.491877198858762</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -478,13 +478,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06219151734294215</v>
+        <v>0.3359305456033885</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01437341059465178</v>
+        <v>0.3366280054629556</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1096120493173484</v>
+        <v>0.3274414489336555</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -498,13 +498,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3790998071966135</v>
+        <v>0.1150894990957224</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6540975680811956</v>
+        <v>0.2716772134935933</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7353451857910803</v>
+        <v>0.6132332874106841</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.3437877970347896</v>
+        <v>0.1782491392309475</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3714315480629424</v>
+        <v>0.4008014468832243</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0808497479991797</v>
+        <v>0.4209494138858282</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -538,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.373344426991821</v>
+        <v>0.110234852700981</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.687055208717224</v>
+        <v>0.2715930716473072</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7352060314331902</v>
+        <v>0.6181720756517116</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.446834661661235</v>
+        <v>0.09047761286170397</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.8151360140818215</v>
+        <v>0.2935348312252548</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.6553361053468973</v>
+        <v>0.6159875559130411</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -578,13 +578,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5232273685332653</v>
+        <v>0.4317582794917663</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05305478386593052</v>
+        <v>0.1908189318649028</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.786272648095115</v>
+        <v>0.3774227886433307</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2369442236038133</v>
+        <v>0.4556530726814805</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3117873485094034</v>
+        <v>0.3268281180292292</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07720625978945365</v>
+        <v>0.2175188092892906</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -618,13 +618,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.442452770307485</v>
+        <v>0.1905445894317963</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2534827828912446</v>
+        <v>0.4721317053918305</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2290117742256323</v>
+        <v>0.3373237051763731</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -638,13 +638,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.3306877826601047</v>
+        <v>0.1942048957510765</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2970345448612828</v>
+        <v>0.4142829586433139</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.004526849863598387</v>
+        <v>0.3915121456056094</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -658,13 +658,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.5606135597972938</v>
+        <v>0.09499968962453799</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.7368426877971234</v>
+        <v>0.3263871557880932</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.5301818901778729</v>
+        <v>0.5786131545873689</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -678,13 +678,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.2503258459262169</v>
+        <v>0.1904480950930233</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3592057399219934</v>
+        <v>0.3663617427428897</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1986669135122076</v>
+        <v>0.4431901621640869</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -698,13 +698,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.6948906849095122</v>
+        <v>0.1198212517510073</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5420455382627422</v>
+        <v>0.5923872086884994</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5997114236138162</v>
+        <v>0.2877915395604932</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -718,13 +718,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.9517116490730355</v>
+        <v>0.09823815516351471</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.49681112950509</v>
+        <v>0.6238154587924021</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6278787223835701</v>
+        <v>0.2779463860440831</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -738,13 +738,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.188065748948241</v>
+        <v>0.05229894261466839</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.9843551303282102</v>
+        <v>0.6375227711288545</v>
       </c>
       <c r="D19" t="n">
-        <v>0.545511981722118</v>
+        <v>0.3101782862564772</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -758,13 +758,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.4379278477355266</v>
+        <v>0.1319854093796613</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.5613290182451458</v>
+        <v>0.366219971113814</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3048911144689541</v>
+        <v>0.5017946195065248</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -778,13 +778,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.3295807942168094</v>
+        <v>0.1736025935082685</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.3996220942414754</v>
+        <v>0.3871027681605553</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1432187629728359</v>
+        <v>0.439294638331176</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -798,13 +798,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.2875632044411508</v>
+        <v>0.1445375452356606</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.5404165795894867</v>
+        <v>0.3001618903328747</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.5599886779783129</v>
+        <v>0.5553005644314646</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -818,13 +818,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.33066933265591</v>
+        <v>0.2047871189277503</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2521314972509948</v>
+        <v>0.4250201510031606</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0591473130409505</v>
+        <v>0.3701927300690893</v>
       </c>
       <c r="E23" t="n">
         <v>11</v>
@@ -838,13 +838,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.7837645848212538</v>
+        <v>0.1314724491611571</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.3587322372619957</v>
+        <v>0.5731002019770203</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4992795351370333</v>
+        <v>0.2954273488618229</v>
       </c>
       <c r="E24" t="n">
         <v>11</v>
@@ -858,13 +858,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.3639276533915616</v>
+        <v>0.1249996631374153</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.6312614158383217</v>
+        <v>0.3357784308243367</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.4236393460823206</v>
+        <v>0.5392219060382477</v>
       </c>
       <c r="E25" t="n">
         <v>11</v>
@@ -878,13 +878,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.2414509355107007</v>
+        <v>0.1438041338135389</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.5396687621426391</v>
+        <v>0.230344402217654</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.919686720331243</v>
+        <v>0.6258514639688072</v>
       </c>
       <c r="E26" t="n">
         <v>11</v>
@@ -898,13 +898,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2335121550360144</v>
+        <v>0.2849517070796996</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2122370821831375</v>
+        <v>0.1879365480068477</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.049907110868012</v>
+        <v>0.5271117449134529</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
@@ -918,13 +918,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.2935814480025463</v>
+        <v>0.1896429266327403</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.3415180664373245</v>
+        <v>0.3739632251740475</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1830452588280114</v>
+        <v>0.4363938481932125</v>
       </c>
       <c r="E28" t="n">
         <v>11</v>
@@ -938,13 +938,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.3820752481699047</v>
+        <v>0.07437911025659254</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.9377206416439156</v>
+        <v>0.2298107318918426</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.957692050233333</v>
+        <v>0.6958101578515646</v>
       </c>
       <c r="E29" t="n">
         <v>11</v>
@@ -958,13 +958,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.6253089567935801</v>
+        <v>0.1414034451983992</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.4085573248017729</v>
+        <v>0.5190759013488624</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3161856679257094</v>
+        <v>0.3395206534527386</v>
       </c>
       <c r="E30" t="n">
         <v>11</v>
@@ -978,13 +978,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.3502052778764073</v>
+        <v>0.2223392735666756</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1634027941469407</v>
+        <v>0.4432505124994398</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1555464506045671</v>
+        <v>0.3344102139338849</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
@@ -998,13 +998,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.4684755674564683</v>
+        <v>0.1705129618418199</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.3422520671518083</v>
+        <v>0.487036357064178</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2707866959286206</v>
+        <v>0.342450681094002</v>
       </c>
       <c r="E32" t="n">
         <v>11</v>
@@ -1018,13 +1018,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.5932250175168383</v>
+        <v>0.1225650991218822</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.5844777590479779</v>
+        <v>0.5163260117134899</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2874646254906178</v>
+        <v>0.3611088891646276</v>
       </c>
       <c r="E33" t="n">
         <v>11</v>
@@ -1038,13 +1038,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.8368614784189722</v>
+        <v>0.172270549959364</v>
       </c>
       <c r="C34" t="n">
-        <v>0.13744515029562</v>
+        <v>0.6709555521940377</v>
       </c>
       <c r="D34" t="n">
-        <v>1.013825646588681</v>
+        <v>0.1567738978465982</v>
       </c>
       <c r="E34" t="n">
         <v>11</v>
@@ -1058,13 +1058,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.6341286422139332</v>
+        <v>0.0903947891596861</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.7730063991454564</v>
+        <v>0.3914675960800414</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2772514170071734</v>
+        <v>0.5181376147602724</v>
       </c>
       <c r="E35" t="n">
         <v>11</v>
@@ -1078,13 +1078,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.5739457578944427</v>
+        <v>0.1457806179437016</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.4172300530982884</v>
+        <v>0.4688151754609192</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1139525086702219</v>
+        <v>0.3854042065953792</v>
       </c>
       <c r="E36" t="n">
         <v>11</v>
@@ -1098,13 +1098,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.3898138546263358</v>
+        <v>0.2170317760736824</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1614888565363212</v>
+        <v>0.4642911209345881</v>
       </c>
       <c r="D37" t="n">
-        <v>0.241827072034957</v>
+        <v>0.3186771029917297</v>
       </c>
       <c r="E37" t="n">
         <v>11</v>
@@ -1118,13 +1118,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.33066933265591</v>
+        <v>0.2074489524834876</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.2408050841115476</v>
+        <v>0.4276809593052006</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07519603437992517</v>
+        <v>0.3648700882113116</v>
       </c>
       <c r="E38" t="n">
         <v>11</v>
@@ -1138,13 +1138,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.3306697049848941</v>
+        <v>0.2074487570033556</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.2408057155855757</v>
+        <v>0.4276809573398153</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07519565505146401</v>
+        <v>0.3648702856568293</v>
       </c>
       <c r="E39" t="n">
         <v>11</v>
@@ -1158,13 +1158,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.05709251216376038</v>
+        <v>0.1850537500556781</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.4407819913192922</v>
+        <v>0.2689838894178709</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.6226511665612007</v>
+        <v>0.545962360526451</v>
       </c>
       <c r="E40" t="n">
         <v>11</v>
@@ -1178,13 +1178,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.2544871270378413</v>
+        <v>0.2265704896205277</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.2036435611831637</v>
+        <v>0.4104429736654315</v>
       </c>
       <c r="D41" t="n">
-        <v>0.04402415273077517</v>
+        <v>0.3629865367140408</v>
       </c>
       <c r="E41" t="n">
         <v>11</v>
@@ -1198,13 +1198,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.3306693326560679</v>
+        <v>0.2074489524845647</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.2408050841068764</v>
+        <v>0.4276809593063629</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07519603438679852</v>
+        <v>0.3648700882090726</v>
       </c>
       <c r="E42" t="n">
         <v>11</v>
@@ -1218,13 +1218,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.3661519558161602</v>
+        <v>0.1182849850010656</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.6535738618069179</v>
+        <v>0.2995672132506319</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.5954730559185177</v>
+        <v>0.5821478017483022</v>
       </c>
       <c r="E43" t="n">
         <v>11</v>
@@ -1238,13 +1238,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.4080296076580412</v>
+        <v>0.1564055951158914</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.4469738896377247</v>
+        <v>0.3987553113859723</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1321162488027661</v>
+        <v>0.4448390934981359</v>
       </c>
       <c r="E44" t="n">
         <v>11</v>
@@ -1258,13 +1258,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.7638264551267128</v>
+        <v>0.07530583326311621</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.7756027378443698</v>
+        <v>0.2539956775891928</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.8954627717192802</v>
+        <v>0.6706984891476909</v>
       </c>
       <c r="E45" t="n">
         <v>11</v>
@@ -1278,13 +1278,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.6672694922257429</v>
+        <v>0.1484305232557529</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.3308432008155497</v>
+        <v>0.5080238647899346</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2554790582866098</v>
+        <v>0.3435456119543124</v>
       </c>
       <c r="E46" t="n">
         <v>11</v>
@@ -1298,13 +1298,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.3306693602691019</v>
+        <v>0.2074489489829357</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.2408050841075265</v>
+        <v>0.4276809701158695</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07519607256524584</v>
+        <v>0.3648700809011948</v>
       </c>
       <c r="E47" t="n">
         <v>11</v>
@@ -1318,13 +1318,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.3851706493758539</v>
+        <v>0.2023261312174159</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.2362779776407607</v>
+        <v>0.3947969093835728</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1260612704176382</v>
+        <v>0.4028769593990111</v>
       </c>
       <c r="E48" t="n">
         <v>11</v>
@@ -1338,13 +1338,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.8810774476900808</v>
+        <v>0.1077388676715589</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.532638421604923</v>
+        <v>0.2054516241864413</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.18066715191039</v>
+        <v>0.6868095081419996</v>
       </c>
       <c r="E49" t="n">
         <v>11</v>
@@ -1358,13 +1358,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3466185225831062</v>
+        <v>0.5324406808358487</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5456211918033967</v>
+        <v>0.3586213745320617</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9372579801194411</v>
+        <v>0.1089379446320896</v>
       </c>
       <c r="E50" t="n">
         <v>12</v>
@@ -1378,13 +1378,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2344361745713133</v>
+        <v>0.3443548920612488</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5689821649065118</v>
+        <v>0.5498325820246974</v>
       </c>
       <c r="D51" t="n">
-        <v>1.032358955340121</v>
+        <v>0.1058125259140541</v>
       </c>
       <c r="E51" t="n">
         <v>12</v>
@@ -1398,13 +1398,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.788275841372132</v>
+        <v>0.6900604963040324</v>
       </c>
       <c r="C52" t="n">
-        <v>0.79385678696262</v>
+        <v>0.2116835230223421</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1732024188563809</v>
+        <v>0.09825598067362547</v>
       </c>
       <c r="E52" t="n">
         <v>12</v>
@@ -1418,13 +1418,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.3992162481143318</v>
+        <v>0.3028082539868138</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7983552381435547</v>
+        <v>0.6191193258567733</v>
       </c>
       <c r="D53" t="n">
-        <v>1.233927955159063</v>
+        <v>0.07807242015641296</v>
       </c>
       <c r="E53" t="n">
         <v>12</v>
@@ -1438,13 +1438,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9214710344994994</v>
+        <v>0.7817650466130404</v>
       </c>
       <c r="C54" t="n">
-        <v>1.028638296812632</v>
+        <v>0.1390377286413322</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.9053418164304496</v>
+        <v>0.07919722474562753</v>
       </c>
       <c r="E54" t="n">
         <v>12</v>
@@ -1458,13 +1458,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.09255827216823981</v>
+        <v>0.4556730500166473</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6191252614033251</v>
+        <v>0.4123924918503087</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4854160238038922</v>
+        <v>0.1319344581330438</v>
       </c>
       <c r="E55" t="n">
         <v>12</v>
@@ -1478,13 +1478,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.06985909500891074</v>
+        <v>0.3825381862592324</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3851967763143506</v>
+        <v>0.4306564994155345</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3279784907024285</v>
+        <v>0.1868053143252331</v>
       </c>
       <c r="E56" t="n">
         <v>12</v>
@@ -1498,13 +1498,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2172938033073736</v>
+        <v>0.5269972341114141</v>
       </c>
       <c r="C57" t="n">
-        <v>1.020833768053168</v>
+        <v>0.4383821560622024</v>
       </c>
       <c r="D57" t="n">
-        <v>1.916515322306863</v>
+        <v>0.03462060982638338</v>
       </c>
       <c r="E57" t="n">
         <v>12</v>
@@ -1518,13 +1518,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3391616819913559</v>
+        <v>0.5349609236925527</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4889871047662608</v>
+        <v>0.2622453338056312</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.4775485155934056</v>
+        <v>0.2027937425018163</v>
       </c>
       <c r="E58" t="n">
         <v>12</v>
@@ -1538,13 +1538,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4701080453267775</v>
+        <v>0.5916476076859476</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7424971503023661</v>
+        <v>0.3044920097029575</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4715315904061657</v>
+        <v>0.1038603826110952</v>
       </c>
       <c r="E59" t="n">
         <v>12</v>
@@ -1558,13 +1558,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8548058111727455</v>
+        <v>0.7249556386033555</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9711390742477749</v>
+        <v>0.2124899694635281</v>
       </c>
       <c r="D60" t="n">
-        <v>0.638339373710342</v>
+        <v>0.06255439193311632</v>
       </c>
       <c r="E60" t="n">
         <v>12</v>
@@ -1578,13 +1578,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.163831290033974</v>
+        <v>0.8013803260614052</v>
       </c>
       <c r="C61" t="n">
-        <v>1.03110641378043</v>
+        <v>0.1398861963643006</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2410122700284307</v>
+        <v>0.05873347757429411</v>
       </c>
       <c r="E61" t="n">
         <v>12</v>
@@ -1598,13 +1598,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.053718605337075</v>
+        <v>0.7848974388415905</v>
       </c>
       <c r="C62" t="n">
-        <v>1.087997323646677</v>
+        <v>0.1544492695019971</v>
       </c>
       <c r="D62" t="n">
-        <v>0.08384966565341179</v>
+        <v>0.06065329165641244</v>
       </c>
       <c r="E62" t="n">
         <v>12</v>
@@ -1618,13 +1618,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8545233317380294</v>
+        <v>0.73062578500847</v>
       </c>
       <c r="C63" t="n">
-        <v>1.026831255873094</v>
+        <v>0.199454772875042</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2236280127733519</v>
+        <v>0.06991944211648791</v>
       </c>
       <c r="E63" t="n">
         <v>12</v>
@@ -1638,13 +1638,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.8930669727546451</v>
+        <v>0.1642735215951079</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.007611334067122943</v>
+        <v>0.5805505766728024</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4684916432545695</v>
+        <v>0.2551759017320897</v>
       </c>
       <c r="E64" t="n">
         <v>12</v>
@@ -1658,13 +1658,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1028903403900029</v>
+        <v>0.4804203521310459</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9860231482901277</v>
+        <v>0.4740257490298595</v>
       </c>
       <c r="D65" t="n">
-        <v>1.60309478422848</v>
+        <v>0.0455538988390945</v>
       </c>
       <c r="E65" t="n">
         <v>12</v>
@@ -1678,13 +1678,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1339105479462455</v>
+        <v>0.4330861790536082</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3525655572576668</v>
+        <v>0.3804894397388586</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3534483530698102</v>
+        <v>0.1864243812075332</v>
       </c>
       <c r="E66" t="n">
         <v>12</v>
@@ -1698,13 +1698,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.4223945654510861</v>
+        <v>0.2614818346223944</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1667211852788319</v>
+        <v>0.5368140120436931</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6114549955919535</v>
+        <v>0.2017041533339126</v>
       </c>
       <c r="E67" t="n">
         <v>12</v>
@@ -1718,13 +1718,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.2649376519332146</v>
+        <v>0.2295901591408191</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.1795333148663535</v>
+        <v>0.4182922892436646</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0751960349385402</v>
+        <v>0.3521175516155162</v>
       </c>
       <c r="E68" t="n">
         <v>12</v>
@@ -1738,13 +1738,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2131755439626908</v>
+        <v>0.3814857614293642</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06839169688772892</v>
+        <v>0.303577283568335</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.160341852796532</v>
+        <v>0.3149369550023006</v>
       </c>
       <c r="E69" t="n">
         <v>12</v>
@@ -1758,13 +1758,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8497961701021814</v>
+        <v>0.4263391660800922</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.04013346600182782</v>
+        <v>0.1970955072974542</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.2731546341826452</v>
+        <v>0.3765653266224536</v>
       </c>
       <c r="E70" t="n">
         <v>12</v>
@@ -1778,13 +1778,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.3306687986112073</v>
+        <v>0.2074491373514592</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.2408045862908276</v>
+        <v>0.4276808728479746</v>
       </c>
       <c r="D71" t="n">
-        <v>0.07519603439644888</v>
+        <v>0.3648699898005661</v>
       </c>
       <c r="E71" t="n">
         <v>12</v>
@@ -1798,13 +1798,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.03258531133423964</v>
+        <v>0.3969933427886578</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4425711556853099</v>
+        <v>0.4538325991773373</v>
       </c>
       <c r="D72" t="n">
-        <v>0.634801238532904</v>
+        <v>0.1491740580340049</v>
       </c>
       <c r="E72" t="n">
         <v>12</v>
@@ -1818,13 +1818,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.8757724776261413</v>
+        <v>0.1523131199324914</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.103306377505908</v>
+        <v>0.5974562358553156</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5812149373299279</v>
+        <v>0.250230644212193</v>
       </c>
       <c r="E73" t="n">
         <v>12</v>
@@ -1838,13 +1838,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.575782664419624</v>
+        <v>0.1913764914929516</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.1323982211412266</v>
+        <v>0.5274145643448698</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4251241082114468</v>
+        <v>0.2812089441621784</v>
       </c>
       <c r="E74" t="n">
         <v>12</v>
@@ -1858,13 +1858,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4724146206280516</v>
+        <v>0.5620311889069488</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5059470311959886</v>
+        <v>0.2638616233081234</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.104605413843266</v>
+        <v>0.1741071877849279</v>
       </c>
       <c r="E75" t="n">
         <v>12</v>
@@ -1878,13 +1878,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.220161786994082</v>
+        <v>0.1270681351392285</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1135655762655101</v>
+        <v>0.6793477561786813</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7582517804799821</v>
+        <v>0.1935841086820905</v>
       </c>
       <c r="E76" t="n">
         <v>12</v>
@@ -1898,13 +1898,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.330669334712816</v>
+        <v>0.2074489522235447</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.2408050841077701</v>
+        <v>0.4276809601112198</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07519603722883213</v>
+        <v>0.3648700876652354</v>
       </c>
       <c r="E77" t="n">
         <v>12</v>
@@ -1918,13 +1918,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.1030927439951761</v>
+        <v>0.3502420708882892</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2243673963688501</v>
+        <v>0.4133536226041967</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1858315397014395</v>
+        <v>0.2364043065075142</v>
       </c>
       <c r="E78" t="n">
         <v>12</v>
@@ -1938,13 +1938,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4688856945044539</v>
+        <v>0.5985643962529403</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8246973762775122</v>
+        <v>0.3104488329211296</v>
       </c>
       <c r="D79" t="n">
-        <v>0.555542045591167</v>
+        <v>0.09098677082593021</v>
       </c>
       <c r="E79" t="n">
         <v>12</v>
@@ -1958,13 +1958,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.2663480961234877</v>
+        <v>0.3223736339280661</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3423090979243799</v>
+        <v>0.4914099196472157</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4607560406866729</v>
+        <v>0.1862164464247182</v>
       </c>
       <c r="E80" t="n">
         <v>12</v>
@@ -1978,13 +1978,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.327128607678874</v>
+        <v>0.2086989574941174</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.2374166754567717</v>
+        <v>0.427155189548198</v>
       </c>
       <c r="D81" t="n">
-        <v>0.07547073420500272</v>
+        <v>0.3641458529576845</v>
       </c>
       <c r="E81" t="n">
         <v>12</v>
@@ -1998,13 +1998,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.7819329470037817</v>
+        <v>0.1524888313644916</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.1976753538181037</v>
+        <v>0.5767508159763985</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5354484283055584</v>
+        <v>0.2707603526591097</v>
       </c>
       <c r="E82" t="n">
         <v>12</v>
@@ -2018,13 +2018,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.02093710401101229</v>
+        <v>0.4475072329505381</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9617836102523741</v>
+        <v>0.4802909472939619</v>
       </c>
       <c r="D83" t="n">
-        <v>1.035311748315322</v>
+        <v>0.07220181975550002</v>
       </c>
       <c r="E83" t="n">
         <v>12</v>
@@ -2038,13 +2038,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6616853110330525</v>
+        <v>0.670731346545766</v>
       </c>
       <c r="C84" t="n">
-        <v>0.936851379090928</v>
+        <v>0.2421158560005084</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1817136571271846</v>
+        <v>0.08715279745372567</v>
       </c>
       <c r="E84" t="n">
         <v>12</v>
@@ -2058,13 +2058,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.7424908803110015</v>
+        <v>0.1794519682860704</v>
       </c>
       <c r="C85" t="n">
-        <v>0.01245243951204142</v>
+        <v>0.6249743629722275</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8335626539845823</v>
+        <v>0.1955736687417022</v>
       </c>
       <c r="E85" t="n">
         <v>12</v>
@@ -2078,13 +2078,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.2131503811879682</v>
+        <v>0.2618539260797685</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.08677518570747469</v>
+        <v>0.4136961483128412</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1123831586222988</v>
+        <v>0.3244499256073902</v>
       </c>
       <c r="E86" t="n">
         <v>12</v>
@@ -2098,13 +2098,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.3308067962530313</v>
+        <v>0.2075233657826528</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.2404162180843198</v>
+        <v>0.4278388179578282</v>
       </c>
       <c r="D87" t="n">
-        <v>0.07600809096690037</v>
+        <v>0.3646378162595189</v>
       </c>
       <c r="E87" t="n">
         <v>12</v>
@@ -2118,13 +2118,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.8132547876463123</v>
+        <v>0.1091368547950282</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.5196389534164061</v>
+        <v>0.5392610328768797</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3062205521193488</v>
+        <v>0.3516021123280921</v>
       </c>
       <c r="E88" t="n">
         <v>12</v>
@@ -2138,13 +2138,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.3306693339331839</v>
+        <v>0.207448952310692</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.2408050841581782</v>
+        <v>0.4276809597970707</v>
       </c>
       <c r="D89" t="n">
-        <v>0.07519603609500471</v>
+        <v>0.3648700878922373</v>
       </c>
       <c r="E89" t="n">
         <v>12</v>
@@ -2158,13 +2158,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.003391592513434516</v>
+        <v>0.420688185861927</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5326678691222033</v>
+        <v>0.4169045180834904</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2886623842920988</v>
+        <v>0.1624072960545827</v>
       </c>
       <c r="E90" t="n">
         <v>12</v>
@@ -2178,13 +2178,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9869695058511481</v>
+        <v>0.7541036177107731</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8978200167350997</v>
+        <v>0.1611940636170098</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.08866976835385058</v>
+        <v>0.08470231867221718</v>
       </c>
       <c r="E91" t="n">
         <v>12</v>
@@ -2198,13 +2198,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6619869294155536</v>
+        <v>0.6020043779706331</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4834130133230772</v>
+        <v>0.2487989463613072</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3498332531951678</v>
+        <v>0.1491966756680593</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -2218,13 +2218,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.7073341065438653</v>
+        <v>0.1797019844027734</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.1424398129188913</v>
+        <v>0.4540594208355623</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.01440684846304729</v>
+        <v>0.366238594761664</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -2238,13 +2238,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.6698430820700773</v>
+        <v>0.1894393674217366</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.07051570955319281</v>
+        <v>0.5210303335403997</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3196519190204534</v>
+        <v>0.2895302990378638</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -2258,13 +2258,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.6565038838240524</v>
+        <v>0.1304221452865232</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.4653184357344315</v>
+        <v>0.4945942611859045</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1843451499818811</v>
+        <v>0.3749835935275718</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -2278,13 +2278,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5086743861993994</v>
+        <v>0.5819959494412764</v>
       </c>
       <c r="C96" t="n">
-        <v>0.56009272970847</v>
+        <v>0.3068654159893459</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8244537849747333</v>
+        <v>0.1111386345693776</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -2298,13 +2298,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.18468217690395</v>
+        <v>0.7814861622259156</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8302261399370884</v>
+        <v>0.1332156416855206</v>
       </c>
       <c r="D97" t="n">
-        <v>0.03065527356113835</v>
+        <v>0.0852981960885638</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -2318,13 +2318,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.3571258180776919</v>
+        <v>0.1756433361707108</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.3760767340111773</v>
+        <v>0.3972687778503868</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.105791145517236</v>
+        <v>0.4270878859789026</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -2338,13 +2338,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.02556423231624994</v>
+        <v>0.3607686380205178</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1717679010924461</v>
+        <v>0.3855141300923356</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1346497550510695</v>
+        <v>0.2537172318871468</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -2358,13 +2358,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.2591473217618453</v>
+        <v>0.2390671686950492</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.1543352012883217</v>
+        <v>0.4430248425460421</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2407425229846948</v>
+        <v>0.3179079887589085</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -2378,13 +2378,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.3301371866697783</v>
+        <v>0.2076138582310921</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.2403950366408835</v>
+        <v>0.4275944309485909</v>
       </c>
       <c r="D101" t="n">
-        <v>0.07518198354207434</v>
+        <v>0.3647917108203169</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -2398,13 +2398,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.1693746061609254</v>
+        <v>0.1884930343556526</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.3846948127368855</v>
+        <v>0.2340458327491001</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.8896979813633825</v>
+        <v>0.5774611328952471</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -2418,13 +2418,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.9860307979128138</v>
+        <v>0.1378779772782918</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.08027631619508402</v>
+        <v>0.6438553377748819</v>
       </c>
       <c r="D103" t="n">
-        <v>0.7545796604258745</v>
+        <v>0.2182666849468264</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -2438,13 +2438,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.3171099558688238</v>
+        <v>0.1950222754493883</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.3002270008372618</v>
+        <v>0.4092325484078842</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.02250583525149334</v>
+        <v>0.3957451761427273</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -2458,13 +2458,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.1318649101175861</v>
+        <v>0.2482151642039854</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.1830532293380468</v>
+        <v>0.3634769647507023</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.1272275586099318</v>
+        <v>0.3883078710453123</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -2478,13 +2478,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.7343526573498553</v>
+        <v>0.07703529815943558</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.8318047838865513</v>
+        <v>0.3740712105594494</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.3744083456315056</v>
+        <v>0.5488934912811146</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -2498,13 +2498,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1697724325988226</v>
+        <v>0.2753146478713048</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.2187382757971483</v>
+        <v>0.2445106283882931</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.6410601151004106</v>
+        <v>0.480174723740402</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -2518,13 +2518,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.3245766889810949</v>
+        <v>0.2094579591969514</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.2355857308132712</v>
+        <v>0.4266151774420366</v>
       </c>
       <c r="D108" t="n">
-        <v>0.07470535571853922</v>
+        <v>0.3639268633610116</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -2538,13 +2538,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.5709683354958619</v>
+        <v>0.1728795090306164</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.2491310326310596</v>
+        <v>0.5362075880796311</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4653154933572424</v>
+        <v>0.2909129028897527</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -2558,13 +2558,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.07562239872669885</v>
+        <v>0.3233663717609457</v>
       </c>
       <c r="C110" t="n">
-        <v>0.07254574232550606</v>
+        <v>0.4126060750490745</v>
       </c>
       <c r="D110" t="n">
-        <v>0.260756915421073</v>
+        <v>0.2640275531899801</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -2578,13 +2578,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.9259809063975052</v>
+        <v>0.09627423808646252</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.5491237506009076</v>
+        <v>0.6509786016472152</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7614778651640695</v>
+        <v>0.2527471602663219</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -2598,13 +2598,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.8197337979122516</v>
+        <v>0.09914897428940991</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.6060314851722893</v>
+        <v>0.5297482938990168</v>
       </c>
       <c r="D112" t="n">
-        <v>0.2501510715391309</v>
+        <v>0.371102731811573</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -2618,13 +2618,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.2708674480549692</v>
+        <v>0.2717417163562172</v>
       </c>
       <c r="C113" t="n">
-        <v>0.01898447905680398</v>
+        <v>0.4616705347895705</v>
       </c>
       <c r="D113" t="n">
-        <v>0.3355581602437</v>
+        <v>0.2665877488542125</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -2638,13 +2638,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.33066933265591</v>
+        <v>0.2074489470299913</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.2408051073372665</v>
+        <v>0.4276809538669868</v>
       </c>
       <c r="D114" t="n">
-        <v>0.07519600146623812</v>
+        <v>0.3648700991030219</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -2658,13 +2658,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.7557095270932623</v>
+        <v>0.08461312673141892</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.7984108851551613</v>
+        <v>0.4767241540180353</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0289255624218699</v>
+        <v>0.4386627192505457</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -2678,13 +2678,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.4046279786785179</v>
+        <v>0.1188073682832775</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.6504417206095532</v>
+        <v>0.3363644332965731</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.4364187561232137</v>
+        <v>0.5448281984201494</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -2698,13 +2698,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.3474132552245535</v>
+        <v>0.1364224052779396</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.567902011826787</v>
+        <v>0.3298140124495791</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.4400254024418125</v>
+        <v>0.5337635822724813</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -2718,13 +2718,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.3397666142448825</v>
+        <v>0.2066036989611903</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.2394293228660559</v>
+        <v>0.4313291481654285</v>
       </c>
       <c r="D118" t="n">
-        <v>0.08842372071186437</v>
+        <v>0.3620671528733812</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -2738,13 +2738,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.3306693326143355</v>
+        <v>0.2074489525045394</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.2408050840444799</v>
+        <v>0.4276809593053817</v>
       </c>
       <c r="D119" t="n">
-        <v>0.07519603442158766</v>
+        <v>0.364870088190079</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -2758,13 +2758,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.291004176020769</v>
+        <v>0.2248761252603556</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.1900566061800826</v>
+        <v>0.425790126482224</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1030832947602451</v>
+        <v>0.3493337482574203</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -2778,13 +2778,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.5137620955954568</v>
+        <v>0.1134609946244251</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.6274418754260752</v>
+        <v>0.331055022009711</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.4907514336981312</v>
+        <v>0.5554839833658639</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -2798,13 +2798,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.6577840005812158</v>
+        <v>0.109913511963268</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.6260538301167627</v>
+        <v>0.4886945220485976</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1324860960096214</v>
+        <v>0.4013919659881343</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -2818,13 +2818,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.6894490413599965</v>
+        <v>0.1454943862172448</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.3337013432524063</v>
+        <v>0.5168352598961571</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2850847699088429</v>
+        <v>0.337670353886598</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -2838,13 +2838,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.5490687145586128</v>
+        <v>0.1224692893619255</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.569617586140877</v>
+        <v>0.3957288898426194</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.2143096380933038</v>
+        <v>0.4818018207954551</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -2858,13 +2858,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.3853306187234847</v>
+        <v>0.1999118180301843</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.2419535802560061</v>
+        <v>0.4490909772002121</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1490583623509155</v>
+        <v>0.3509972047696038</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -2878,13 +2878,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.33066933265591</v>
+        <v>0.2074489524844318</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.2408050841075264</v>
+        <v>0.4276809593061413</v>
       </c>
       <c r="D126" t="n">
-        <v>0.07519603438561724</v>
+        <v>0.3648700882094271</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -2898,13 +2898,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.376207757999235</v>
+        <v>0.201894536062203</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.2404094676457669</v>
+        <v>0.4454490308299459</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1389052201208453</v>
+        <v>0.3526564331078512</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -2918,13 +2918,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.33066933265591</v>
+        <v>0.2074489524844318</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.2408050841075264</v>
+        <v>0.4276809593061413</v>
       </c>
       <c r="D128" t="n">
-        <v>0.07519603438561724</v>
+        <v>0.3648700882094271</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -2938,13 +2938,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.3424950544544537</v>
+        <v>0.1346801929151779</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.5994319813969821</v>
+        <v>0.3674383391069019</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.2669226064720932</v>
+        <v>0.49788146797792</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -2958,13 +2958,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.8325867881024359</v>
+        <v>0.09499154038699116</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.6608477364697369</v>
+        <v>0.595577835953458</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5191008974015762</v>
+        <v>0.3094306236595508</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -2978,13 +2978,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.3310966489494038</v>
+        <v>0.2073944438377413</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.24080655640035</v>
+        <v>0.427848521192136</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0757881465828126</v>
+        <v>0.3647570349701225</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -2998,13 +2998,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.3305136812823075</v>
+        <v>0.2075029146544196</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.240659637571085</v>
+        <v>0.4276556865409095</v>
       </c>
       <c r="D132" t="n">
-        <v>0.07519568980144414</v>
+        <v>0.3648413988046711</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -3018,13 +3018,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1680390363725793</v>
+        <v>0.3996349846259733</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1569878484557208</v>
+        <v>0.3498293739965019</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1819810646826499</v>
+        <v>0.2505356413775247</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -3038,13 +3038,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.3813559367880977</v>
+        <v>0.1112765205602028</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.6833127397760236</v>
+        <v>0.2837646003821896</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.6774960512641037</v>
+        <v>0.6049588790576074</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -3058,13 +3058,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.2615493047393621</v>
+        <v>0.1541065752124191</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.5068235425335604</v>
+        <v>0.3084905039387228</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.5064433668871128</v>
+        <v>0.5374029208488578</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -3078,13 +3078,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.6295226489494712</v>
+        <v>0.1476067651777632</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.3711922253343677</v>
+        <v>0.5441253144469788</v>
       </c>
       <c r="D136" t="n">
-        <v>0.4455389853394499</v>
+        <v>0.308267920375258</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -3098,13 +3098,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.33066933265591</v>
+        <v>0.2074489153599177</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.2408052422159156</v>
+        <v>0.4276809222856686</v>
       </c>
       <c r="D137" t="n">
-        <v>0.075195810326718</v>
+        <v>0.3648701623544137</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -3118,13 +3118,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.3226115200884737</v>
+        <v>0.1910722671615186</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.3226394798501951</v>
+        <v>0.4042308691721261</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.04594650419158074</v>
+        <v>0.4046968636663551</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -3138,13 +3138,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.5848418602511762</v>
+        <v>0.09371149510091703</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.7693450992580971</v>
+        <v>0.3824718974813881</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.3011551353342359</v>
+        <v>0.5238166074176948</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -3158,13 +3158,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.061321517449566</v>
+        <v>0.6857223180168834</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4993511376178748</v>
+        <v>0.149378015425139</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.1934746437102889</v>
+        <v>0.1648996665579779</v>
       </c>
       <c r="E140" t="n">
         <v>14</v>
@@ -3178,13 +3178,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.02266516459224927</v>
+        <v>0.4305011567579274</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3887665104330268</v>
+        <v>0.3103788124353823</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.5976839335476278</v>
+        <v>0.2591200308066905</v>
       </c>
       <c r="E141" t="n">
         <v>14</v>
@@ -3198,13 +3198,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.6638223322709897</v>
+        <v>0.1025462930893052</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.692762605388376</v>
+        <v>0.4915610260792527</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1319004441490701</v>
+        <v>0.4058926808314421</v>
       </c>
       <c r="E142" t="n">
         <v>14</v>
@@ -3218,13 +3218,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.3602124253062204</v>
+        <v>0.4952695995554236</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3512969742056118</v>
+        <v>0.3025444441546939</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1070979052032588</v>
+        <v>0.2021859562898822</v>
       </c>
       <c r="E143" t="n">
         <v>14</v>
@@ -3238,13 +3238,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.2052444938491249</v>
+        <v>0.3535354364534707</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5498443942415778</v>
+        <v>0.5188947994148205</v>
       </c>
       <c r="D144" t="n">
-        <v>0.7645530796294091</v>
+        <v>0.1275697641317083</v>
       </c>
       <c r="E144" t="n">
         <v>14</v>
@@ -3258,13 +3258,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.4449960959028328</v>
+        <v>0.2867540322503622</v>
       </c>
       <c r="C145" t="n">
-        <v>0.7742843025346572</v>
+        <v>0.6308852703150587</v>
       </c>
       <c r="D145" t="n">
-        <v>1.197524168320356</v>
+        <v>0.08236069743457917</v>
       </c>
       <c r="E145" t="n">
         <v>14</v>
@@ -3278,13 +3278,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.202561023495543</v>
+        <v>0.8205870308793681</v>
       </c>
       <c r="C146" t="n">
-        <v>1.190110095723015</v>
+        <v>0.1414841817553355</v>
       </c>
       <c r="D146" t="n">
-        <v>0.7242070183293602</v>
+        <v>0.03792878736529645</v>
       </c>
       <c r="E146" t="n">
         <v>14</v>
@@ -3298,13 +3298,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.01468496535653535</v>
+        <v>0.3509200759564588</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1325373967830202</v>
+        <v>0.3917444378905102</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1899276228315799</v>
+        <v>0.2573354861530308</v>
       </c>
       <c r="E147" t="n">
         <v>14</v>
@@ -3318,13 +3318,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.278184335032899</v>
+        <v>0.8312556881663014</v>
       </c>
       <c r="C148" t="n">
-        <v>1.063087422626661</v>
+        <v>0.1080765953683916</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.2661338893503143</v>
+        <v>0.06066771646530721</v>
       </c>
       <c r="E148" t="n">
         <v>14</v>
@@ -3338,13 +3338,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.510544361033861</v>
+        <v>0.1405097488250846</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.4809349333287363</v>
+        <v>0.4098782849128779</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.129213395505023</v>
+        <v>0.4496119662620376</v>
       </c>
       <c r="E149" t="n">
         <v>14</v>
@@ -3358,13 +3358,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.3357732069828324</v>
+        <v>0.3084219473212191</v>
       </c>
       <c r="C150" t="n">
-        <v>0.4647222839123748</v>
+        <v>0.5650632604611568</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9203744454083332</v>
+        <v>0.126514792217624</v>
       </c>
       <c r="E150" t="n">
         <v>14</v>
@@ -3378,13 +3378,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.06002968896933297</v>
+        <v>0.3562491732387098</v>
       </c>
       <c r="C151" t="n">
-        <v>0.08202553886356798</v>
+        <v>0.3600163899725027</v>
       </c>
       <c r="D151" t="n">
-        <v>0.07865397240393078</v>
+        <v>0.2837344367887874</v>
       </c>
       <c r="E151" t="n">
         <v>14</v>
@@ -3398,13 +3398,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.6831436840425669</v>
+        <v>0.2217757012010672</v>
       </c>
       <c r="C152" t="n">
-        <v>0.4838988411816368</v>
+        <v>0.6480381764604138</v>
       </c>
       <c r="D152" t="n">
-        <v>0.8999978529248212</v>
+        <v>0.1301861223385187</v>
       </c>
       <c r="E152" t="n">
         <v>14</v>
@@ -3418,13 +3418,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.4822220458013673</v>
+        <v>0.148057536282409</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.4559206776050193</v>
+        <v>0.4248704175736756</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.04741498110591326</v>
+        <v>0.4270720461439155</v>
       </c>
       <c r="E153" t="n">
         <v>14</v>
@@ -3438,13 +3438,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.6938047883728762</v>
+        <v>0.2257534013622202</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5731963240710984</v>
+        <v>0.6365281521607529</v>
       </c>
       <c r="D154" t="n">
-        <v>0.7413459718970604</v>
+        <v>0.1377184464770271</v>
       </c>
       <c r="E154" t="n">
         <v>14</v>
@@ -3458,13 +3458,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.6794034519061471</v>
+        <v>0.1884348944263137</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.2083360184138159</v>
+        <v>0.2929333047128565</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.7632487278688534</v>
+        <v>0.5186318008608298</v>
       </c>
       <c r="E155" t="n">
         <v>14</v>
@@ -3478,13 +3478,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.4411670951758319</v>
+        <v>0.2751771000584133</v>
       </c>
       <c r="C156" t="n">
-        <v>0.4085754658294589</v>
+        <v>0.6021556855176179</v>
       </c>
       <c r="D156" t="n">
-        <v>1.050008306402179</v>
+        <v>0.1226672144239688</v>
       </c>
       <c r="E156" t="n">
         <v>14</v>
@@ -3498,13 +3498,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.1783763413472521</v>
+        <v>0.2640282670514209</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.1005771477976989</v>
+        <v>0.4018976833375625</v>
       </c>
       <c r="D157" t="n">
-        <v>0.07284696786199105</v>
+        <v>0.3340740496110166</v>
       </c>
       <c r="E157" t="n">
         <v>14</v>
@@ -3518,13 +3518,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.9677859967534892</v>
+        <v>0.7515040657347102</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9525445496301476</v>
+        <v>0.1847371367769049</v>
       </c>
       <c r="D158" t="n">
-        <v>0.5435016878238846</v>
+        <v>0.06375879748838498</v>
       </c>
       <c r="E158" t="n">
         <v>14</v>
@@ -3538,13 +3538,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.008455353509831121</v>
+        <v>0.4473721536575887</v>
       </c>
       <c r="C159" t="n">
-        <v>1.023199621631595</v>
+        <v>0.4618101466166689</v>
       </c>
       <c r="D159" t="n">
-        <v>0.6638057786189342</v>
+        <v>0.09081769972574226</v>
       </c>
       <c r="E159" t="n">
         <v>14</v>
@@ -3558,13 +3558,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.05382549268819442</v>
+        <v>0.4499154201998592</v>
       </c>
       <c r="C160" t="n">
-        <v>0.6908391984450791</v>
+        <v>0.4417026840490975</v>
       </c>
       <c r="D160" t="n">
-        <v>0.7299126406963602</v>
+        <v>0.1083818957510434</v>
       </c>
       <c r="E160" t="n">
         <v>14</v>
@@ -3578,13 +3578,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.3353350172061086</v>
+        <v>0.4544767698321104</v>
       </c>
       <c r="C161" t="n">
-        <v>0.2160688658586911</v>
+        <v>0.3258311478710772</v>
       </c>
       <c r="D161" t="n">
-        <v>0.3313239980706497</v>
+        <v>0.2196920822968122</v>
       </c>
       <c r="E161" t="n">
         <v>14</v>
@@ -3598,13 +3598,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.08717161992212222</v>
+        <v>0.3777257016393217</v>
       </c>
       <c r="C162" t="n">
-        <v>0.4129114660882138</v>
+        <v>0.4638817112767873</v>
       </c>
       <c r="D162" t="n">
-        <v>0.5925617901059738</v>
+        <v>0.158392587083891</v>
       </c>
       <c r="E162" t="n">
         <v>14</v>
@@ -3618,13 +3618,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.5019178173180917</v>
+        <v>0.2052400403669678</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.137451502518554</v>
+        <v>0.4690808507972691</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1796158763577388</v>
+        <v>0.3256791088357633</v>
       </c>
       <c r="E163" t="n">
         <v>14</v>
@@ -3638,13 +3638,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.655879482346448</v>
+        <v>0.1767245811912984</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.1309359834181958</v>
+        <v>0.5900959879125601</v>
       </c>
       <c r="D164" t="n">
-        <v>0.7078925202516688</v>
+        <v>0.2331794308961417</v>
       </c>
       <c r="E164" t="n">
         <v>14</v>
@@ -3658,13 +3658,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.5249369773563997</v>
+        <v>0.5656443045933557</v>
       </c>
       <c r="C165" t="n">
-        <v>0.4756501411898008</v>
+        <v>0.2708587505492778</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1770874950970902</v>
+        <v>0.1634969448573666</v>
       </c>
       <c r="E165" t="n">
         <v>14</v>
@@ -3678,13 +3678,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.05169186126642838</v>
+        <v>0.4367605214336878</v>
       </c>
       <c r="C166" t="n">
-        <v>0.5750663750821673</v>
+        <v>0.441083606214453</v>
       </c>
       <c r="D166" t="n">
-        <v>0.7231652392564686</v>
+        <v>0.1221558723518593</v>
       </c>
       <c r="E166" t="n">
         <v>14</v>
@@ -3698,13 +3698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.4201715544356412</v>
+        <v>0.5021169256439452</v>
       </c>
       <c r="C167" t="n">
-        <v>0.3131450093612188</v>
+        <v>0.2607480308084064</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.2421501007953114</v>
+        <v>0.2371350435476485</v>
       </c>
       <c r="E167" t="n">
         <v>14</v>
@@ -3718,13 +3718,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.6610372964039565</v>
+        <v>0.602829225045692</v>
       </c>
       <c r="C168" t="n">
-        <v>0.4841030457160115</v>
+        <v>0.2207501999870304</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.1666493496320143</v>
+        <v>0.1764205749672773</v>
       </c>
       <c r="E168" t="n">
         <v>14</v>
@@ -3738,13 +3738,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.9785236633088725</v>
+        <v>0.7618433967984781</v>
       </c>
       <c r="C169" t="n">
-        <v>1.04871655761376</v>
+        <v>0.1826235299463869</v>
       </c>
       <c r="D169" t="n">
-        <v>0.5548885120848674</v>
+        <v>0.05553307325513472</v>
       </c>
       <c r="E169" t="n">
         <v>14</v>
@@ -3758,13 +3758,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.8104879942346598</v>
+        <v>0.1486217885139044</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.1576302935649995</v>
+        <v>0.6568569417404624</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9679037389726544</v>
+        <v>0.1945212697456333</v>
       </c>
       <c r="E170" t="n">
         <v>14</v>
@@ -3778,13 +3778,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.27571109973958</v>
+        <v>0.4244990397774004</v>
       </c>
       <c r="C171" t="n">
-        <v>0.1499238653986255</v>
+        <v>0.3512742250722456</v>
       </c>
       <c r="D171" t="n">
-        <v>0.4621630953181918</v>
+        <v>0.2242267351503539</v>
       </c>
       <c r="E171" t="n">
         <v>14</v>
@@ -3798,13 +3798,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.6772889450079913</v>
+        <v>0.6775674740285903</v>
       </c>
       <c r="C172" t="n">
-        <v>1.008359249521333</v>
+        <v>0.2500665425494131</v>
       </c>
       <c r="D172" t="n">
-        <v>0.4304520293580011</v>
+        <v>0.07236598342199636</v>
       </c>
       <c r="E172" t="n">
         <v>14</v>
@@ -3818,13 +3818,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.6100542552856411</v>
+        <v>0.6654334204410453</v>
       </c>
       <c r="C173" t="n">
-        <v>1.245751045719977</v>
+        <v>0.2837477180604563</v>
       </c>
       <c r="D173" t="n">
-        <v>0.7940369379116499</v>
+        <v>0.05081886149849812</v>
       </c>
       <c r="E173" t="n">
         <v>14</v>
@@ -3838,13 +3838,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.3448386319264211</v>
+        <v>0.4620351996745268</v>
       </c>
       <c r="C174" t="n">
-        <v>0.2412101354153473</v>
+        <v>0.3060482066947364</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1168585609526284</v>
+        <v>0.231916593630737</v>
       </c>
       <c r="E174" t="n">
         <v>14</v>
@@ -3858,13 +3858,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1.580042174264437</v>
+        <v>0.8974292888256462</v>
       </c>
       <c r="C175" t="n">
-        <v>1.629402780796772</v>
+        <v>0.08402371746477795</v>
       </c>
       <c r="D175" t="n">
-        <v>0.6096884090452875</v>
+        <v>0.0185469937095757</v>
       </c>
       <c r="E175" t="n">
         <v>14</v>
@@ -3878,13 +3878,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.5485974723951189</v>
+        <v>0.6303819591100683</v>
       </c>
       <c r="C176" t="n">
-        <v>0.8969320228945464</v>
+        <v>0.3010391856760594</v>
       </c>
       <c r="D176" t="n">
-        <v>0.8806151420921462</v>
+        <v>0.06857885521387212</v>
       </c>
       <c r="E176" t="n">
         <v>14</v>
@@ -3898,13 +3898,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.1356539062694986</v>
+        <v>0.3838257769501778</v>
       </c>
       <c r="C177" t="n">
-        <v>0.7096909630537723</v>
+        <v>0.5122898372568424</v>
       </c>
       <c r="D177" t="n">
-        <v>0.8509070023928681</v>
+        <v>0.1038843857929798</v>
       </c>
       <c r="E177" t="n">
         <v>14</v>
@@ -3918,13 +3918,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.6087683357982036</v>
+        <v>0.2296803585524566</v>
       </c>
       <c r="C178" t="n">
-        <v>0.312779507360191</v>
+        <v>0.6249293053056568</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9286547061248576</v>
+        <v>0.1453903361418866</v>
       </c>
       <c r="E178" t="n">
         <v>14</v>
@@ -3938,13 +3938,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1.427789848788157</v>
+        <v>0.868864503545184</v>
       </c>
       <c r="C179" t="n">
-        <v>1.126628956554981</v>
+        <v>0.07949394897561289</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.7086317136856557</v>
+        <v>0.05164154747920294</v>
       </c>
       <c r="E179" t="n">
         <v>14</v>
@@ -3958,13 +3958,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.3905112560467167</v>
+        <v>0.5788678989881142</v>
       </c>
       <c r="C180" t="n">
-        <v>0.8622300157683164</v>
+        <v>0.3626284196154202</v>
       </c>
       <c r="D180" t="n">
-        <v>1.315652256558669</v>
+        <v>0.05850368139646577</v>
       </c>
       <c r="E180" t="n">
         <v>14</v>
@@ -3978,13 +3978,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.3306760367343355</v>
+        <v>0.1978376866770407</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.2816389919205147</v>
+        <v>0.4180271254718964</v>
       </c>
       <c r="D181" t="n">
-        <v>0.01746755357003585</v>
+        <v>0.3841351878510627</v>
       </c>
       <c r="E181" t="n">
         <v>14</v>
@@ -3998,13 +3998,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.9507533476569241</v>
+        <v>0.6515808824681947</v>
       </c>
       <c r="C182" t="n">
-        <v>0.4280219875407177</v>
+        <v>0.1411074575321403</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.7156404992092257</v>
+        <v>0.2073116599996651</v>
       </c>
       <c r="E182" t="n">
         <v>14</v>
@@ -4018,13 +4018,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.6529017407760512</v>
+        <v>0.690620539116605</v>
       </c>
       <c r="C183" t="n">
-        <v>1.113913609019628</v>
+        <v>0.2262624146039938</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.1733935049275639</v>
+        <v>0.08311704627940118</v>
       </c>
       <c r="E183" t="n">
         <v>14</v>
@@ -4038,13 +4038,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1.001780306487466</v>
+        <v>0.6929498551075164</v>
       </c>
       <c r="C184" t="n">
-        <v>0.5440846695579928</v>
+        <v>0.1821578893510842</v>
       </c>
       <c r="D184" t="n">
-        <v>0.4960369411123864</v>
+        <v>0.1248922555413994</v>
       </c>
       <c r="E184" t="n">
         <v>14</v>
@@ -4058,13 +4058,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.3473805219806441</v>
+        <v>0.1477860003564541</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.5060080368963816</v>
+        <v>0.3286067702551856</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.4413351196644312</v>
+        <v>0.5236072293883599</v>
       </c>
       <c r="E185" t="n">
         <v>14</v>
@@ -4078,13 +4078,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.3306669095742689</v>
+        <v>0.2074497912813463</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.2408028253430233</v>
+        <v>0.4276805670151962</v>
       </c>
       <c r="D186" t="n">
-        <v>0.07519603438561925</v>
+        <v>0.3648696417034575</v>
       </c>
       <c r="E186" t="n">
         <v>15</v>
@@ -4098,13 +4098,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1.028995009131189</v>
+        <v>0.7831276708463168</v>
       </c>
       <c r="C187" t="n">
-        <v>1.20183652849017</v>
+        <v>0.1696249627005855</v>
       </c>
       <c r="D187" t="n">
-        <v>0.4534399313760766</v>
+        <v>0.04724736645309749</v>
       </c>
       <c r="E187" t="n">
         <v>15</v>
@@ -4118,13 +4118,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.337892505677374</v>
+        <v>0.8716529411981622</v>
       </c>
       <c r="C188" t="n">
-        <v>1.223376299729171</v>
+        <v>0.08223021980716903</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.9942183674143674</v>
+        <v>0.04611683899466889</v>
       </c>
       <c r="E188" t="n">
         <v>15</v>
@@ -4138,13 +4138,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.1102262624840542</v>
+        <v>0.3458634243328153</v>
       </c>
       <c r="C189" t="n">
-        <v>0.180177068420528</v>
+        <v>0.3848856022386054</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.005074452688103248</v>
+        <v>0.2692509734285792</v>
       </c>
       <c r="E189" t="n">
         <v>15</v>
@@ -4158,13 +4158,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-1.54101943528546</v>
+        <v>0.05366885841306565</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.4591570476210975</v>
+        <v>0.8023790896053969</v>
       </c>
       <c r="D190" t="n">
-        <v>1.373461581827166</v>
+        <v>0.1439520519815373</v>
       </c>
       <c r="E190" t="n">
         <v>15</v>
@@ -4178,13 +4178,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.1510838140275413</v>
+        <v>0.3829920747101592</v>
       </c>
       <c r="C191" t="n">
-        <v>0.7622590494435731</v>
+        <v>0.5648792925777901</v>
       </c>
       <c r="D191" t="n">
-        <v>1.790401706898657</v>
+        <v>0.05212863271205066</v>
       </c>
       <c r="E191" t="n">
         <v>15</v>
@@ -4198,13 +4198,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.708889887813694</v>
+        <v>0.1513356391653869</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.2828055568501885</v>
+        <v>0.5290951945322655</v>
       </c>
       <c r="D192" t="n">
-        <v>0.3406749582284131</v>
+        <v>0.3195691663023477</v>
       </c>
       <c r="E192" t="n">
         <v>15</v>
@@ -4218,13 +4218,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.7872903151061665</v>
+        <v>0.7167972668240185</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9367349111908291</v>
+        <v>0.2464780649801751</v>
       </c>
       <c r="D193" t="n">
-        <v>1.936089982179412</v>
+        <v>0.03672466819580666</v>
       </c>
       <c r="E193" t="n">
         <v>15</v>
@@ -4238,13 +4238,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.9289061594296811</v>
+        <v>0.07966181520701722</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.7347239176597239</v>
+        <v>0.5470054455732163</v>
       </c>
       <c r="D194" t="n">
-        <v>0.2691551387095946</v>
+        <v>0.3733327392197666</v>
       </c>
       <c r="E194" t="n">
         <v>15</v>
@@ -4258,13 +4258,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.8234253442097905</v>
+        <v>0.1432006160868022</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.2220328223388703</v>
+        <v>0.5983847231067578</v>
       </c>
       <c r="D195" t="n">
-        <v>0.6179308899552544</v>
+        <v>0.2584146608064401</v>
       </c>
       <c r="E195" t="n">
         <v>15</v>
@@ -4278,13 +4278,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.2321965538352064</v>
+        <v>0.5020345234061099</v>
       </c>
       <c r="C196" t="n">
-        <v>0.6276870947529648</v>
+        <v>0.3676653768569387</v>
       </c>
       <c r="D196" t="n">
-        <v>0.4183350328584434</v>
+        <v>0.1303000997369511</v>
       </c>
       <c r="E196" t="n">
         <v>15</v>
@@ -4298,13 +4298,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.6368161725975883</v>
+        <v>0.2352287284666444</v>
       </c>
       <c r="C197" t="n">
-        <v>0.8106302095736037</v>
+        <v>0.6933214525093734</v>
       </c>
       <c r="D197" t="n">
-        <v>1.38069884582313</v>
+        <v>0.07144981902398219</v>
       </c>
       <c r="E197" t="n">
         <v>15</v>
@@ -4318,13 +4318,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.2730293152356251</v>
+        <v>0.5190254933554</v>
       </c>
       <c r="C198" t="n">
-        <v>0.6308054003853641</v>
+        <v>0.3471278539181153</v>
       </c>
       <c r="D198" t="n">
-        <v>0.3261644001437782</v>
+        <v>0.1338466527264844</v>
       </c>
       <c r="E198" t="n">
         <v>15</v>
@@ -4338,13 +4338,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.01955253950698332</v>
+        <v>0.4329683141495744</v>
       </c>
       <c r="C199" t="n">
-        <v>0.554970677636332</v>
+        <v>0.4004836950316945</v>
       </c>
       <c r="D199" t="n">
-        <v>0.1768409536492108</v>
+        <v>0.1665479908187312</v>
       </c>
       <c r="E199" t="n">
         <v>15</v>
@@ -4358,13 +4358,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.6452576964362304</v>
+        <v>0.6759839847271258</v>
       </c>
       <c r="C200" t="n">
-        <v>1.214773875334753</v>
+        <v>0.2702638183015292</v>
       </c>
       <c r="D200" t="n">
-        <v>0.6978528099719407</v>
+        <v>0.05375219697134494</v>
       </c>
       <c r="E200" t="n">
         <v>15</v>
@@ -4378,13 +4378,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.4842495110581806</v>
+        <v>0.6091742722191213</v>
       </c>
       <c r="C201" t="n">
-        <v>0.8723298054417848</v>
+        <v>0.326067432600295</v>
       </c>
       <c r="D201" t="n">
-        <v>1.073681855396475</v>
+        <v>0.0647582951805835</v>
       </c>
       <c r="E201" t="n">
         <v>15</v>
@@ -4398,13 +4398,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.447167689153627</v>
+        <v>0.8855903014724703</v>
       </c>
       <c r="C202" t="n">
-        <v>1.462112382258862</v>
+        <v>0.08215050675175711</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.4717560360467059</v>
+        <v>0.03225919177577238</v>
       </c>
       <c r="E202" t="n">
         <v>15</v>
@@ -4418,13 +4418,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.9269617415202964</v>
+        <v>0.1626193731910941</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1816704771618427</v>
+        <v>0.6753614963721337</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9246208005696236</v>
+        <v>0.162019130436772</v>
       </c>
       <c r="E203" t="n">
         <v>15</v>
@@ -4438,13 +4438,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.2223035383785146</v>
+        <v>0.4846277313345498</v>
       </c>
       <c r="C204" t="n">
-        <v>0.4997681142229886</v>
+        <v>0.3511433826822455</v>
       </c>
       <c r="D204" t="n">
-        <v>0.2267062188150679</v>
+        <v>0.1642288859832046</v>
       </c>
       <c r="E204" t="n">
         <v>15</v>
@@ -4458,13 +4458,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.1041508967686791</v>
+        <v>0.408870516591351</v>
       </c>
       <c r="C205" t="n">
-        <v>0.2668245790470828</v>
+        <v>0.3751627043853105</v>
       </c>
       <c r="D205" t="n">
-        <v>0.248668222156626</v>
+        <v>0.2159667790233386</v>
       </c>
       <c r="E205" t="n">
         <v>15</v>
@@ -4478,13 +4478,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.7478242282614191</v>
+        <v>0.6377198793608362</v>
       </c>
       <c r="C206" t="n">
-        <v>0.5437086693300847</v>
+        <v>0.2339837273487857</v>
       </c>
       <c r="D206" t="n">
-        <v>0.481994133784827</v>
+        <v>0.1282963932903783</v>
       </c>
       <c r="E206" t="n">
         <v>15</v>
@@ -4498,13 +4498,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.3306693140330356</v>
+        <v>0.2074489590306742</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.2408050663264724</v>
+        <v>0.4276809564064738</v>
       </c>
       <c r="D207" t="n">
-        <v>0.07519603507357801</v>
+        <v>0.3648700845628519</v>
       </c>
       <c r="E207" t="n">
         <v>15</v>
@@ -4518,13 +4518,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.2873979033752925</v>
+        <v>0.3305635535770421</v>
       </c>
       <c r="C208" t="n">
-        <v>0.5523516852781281</v>
+        <v>0.5326238899017547</v>
       </c>
       <c r="D208" t="n">
-        <v>0.6726508955380571</v>
+        <v>0.136812556521203</v>
       </c>
       <c r="E208" t="n">
         <v>15</v>
@@ -4538,13 +4538,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1.355241051405975</v>
+        <v>0.8534948757380512</v>
       </c>
       <c r="C209" t="n">
-        <v>1.241534664591923</v>
+        <v>0.1025455139152994</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.113501377534555</v>
+        <v>0.04395961034664963</v>
       </c>
       <c r="E209" t="n">
         <v>15</v>
@@ -4558,13 +4558,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.2362603841040654</v>
+        <v>0.3370538527894223</v>
       </c>
       <c r="C210" t="n">
-        <v>0.4074058336978984</v>
+        <v>0.4895190917635116</v>
       </c>
       <c r="D210" t="n">
-        <v>0.4734571678395862</v>
+        <v>0.1734270554470663</v>
       </c>
       <c r="E210" t="n">
         <v>15</v>
@@ -4578,13 +4578,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.1690138787083827</v>
+        <v>0.2669189604883376</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.09513457859749264</v>
+        <v>0.3989024782187195</v>
       </c>
       <c r="D211" t="n">
-        <v>0.06374294702450004</v>
+        <v>0.3341785612929426</v>
       </c>
       <c r="E211" t="n">
         <v>15</v>
@@ -4598,13 +4598,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1.552372885487621</v>
+        <v>0.7895762969776156</v>
       </c>
       <c r="C212" t="n">
-        <v>0.6260852467560828</v>
+        <v>0.07423698979132415</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.7688502908623394</v>
+        <v>0.1361867132310603</v>
       </c>
       <c r="E212" t="n">
         <v>15</v>
@@ -4618,13 +4618,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.4804561015424488</v>
+        <v>0.1454986659029233</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.4873315844721293</v>
+        <v>0.493916386999824</v>
       </c>
       <c r="D213" t="n">
-        <v>0.2609152278698353</v>
+        <v>0.3605849470972529</v>
       </c>
       <c r="E213" t="n">
         <v>15</v>
@@ -4638,13 +4638,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1.096293856409296</v>
+        <v>0.8256182527063203</v>
       </c>
       <c r="C214" t="n">
-        <v>1.02116556198584</v>
+        <v>0.1029877115837437</v>
       </c>
       <c r="D214" t="n">
-        <v>-1.317418133999376</v>
+        <v>0.07139403570993606</v>
       </c>
       <c r="E214" t="n">
         <v>15</v>
@@ -4658,13 +4658,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.6677663480551772</v>
+        <v>0.689488773123428</v>
       </c>
       <c r="C215" t="n">
-        <v>1.373235133422207</v>
+        <v>0.2541654499754288</v>
       </c>
       <c r="D215" t="n">
-        <v>0.4128213354796317</v>
+        <v>0.05634577690114295</v>
       </c>
       <c r="E215" t="n">
         <v>15</v>
@@ -4678,13 +4678,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.08917887294725937</v>
+        <v>0.4125623811172331</v>
       </c>
       <c r="C216" t="n">
-        <v>1.037671311510221</v>
+        <v>0.4969394314173227</v>
       </c>
       <c r="D216" t="n">
-        <v>0.7279123042800805</v>
+        <v>0.09049818746544409</v>
       </c>
       <c r="E216" t="n">
         <v>15</v>
@@ -4698,13 +4698,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.1482955379404229</v>
+        <v>0.5014592351213809</v>
       </c>
       <c r="C217" t="n">
-        <v>1.50483503045697</v>
+        <v>0.451607362615653</v>
       </c>
       <c r="D217" t="n">
-        <v>1.188309352888613</v>
+        <v>0.0469334022629657</v>
       </c>
       <c r="E217" t="n">
         <v>15</v>
@@ -4718,13 +4718,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1.453521127884399</v>
+        <v>0.8777990607867469</v>
       </c>
       <c r="C218" t="n">
-        <v>1.521190475076502</v>
+        <v>0.09590541370864297</v>
       </c>
       <c r="D218" t="n">
-        <v>0.298765215011399</v>
+        <v>0.02629552550461023</v>
       </c>
       <c r="E218" t="n">
         <v>15</v>
@@ -4738,13 +4738,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1.411718876539832</v>
+        <v>0.8606541323476311</v>
       </c>
       <c r="C219" t="n">
-        <v>1.07931195180974</v>
+        <v>0.08292039753359956</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.646977516426037</v>
+        <v>0.05642547011876946</v>
       </c>
       <c r="E219" t="n">
         <v>15</v>
@@ -4758,13 +4758,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.33066933265591</v>
+        <v>0.2074489524844318</v>
       </c>
       <c r="C220" t="n">
-        <v>-0.2408050841075264</v>
+        <v>0.4276809593061413</v>
       </c>
       <c r="D220" t="n">
-        <v>0.07519603438561724</v>
+        <v>0.3648700882094271</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -4778,13 +4778,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.3306706815261272</v>
+        <v>0.2066239439297513</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.244317004090624</v>
+        <v>0.4268586726591547</v>
       </c>
       <c r="D221" t="n">
-        <v>0.07022308666543484</v>
+        <v>0.3665173834110941</v>
       </c>
       <c r="E221" t="n">
         <v>16</v>
@@ -4798,13 +4798,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.3283386662755499</v>
+        <v>0.204272601889987</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.2555455813151151</v>
+        <v>0.4233446253399138</v>
       </c>
       <c r="D222" t="n">
-        <v>0.05131259923436861</v>
+        <v>0.3723827727700991</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -4818,13 +4818,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.33066933265591</v>
+        <v>0.2074488411905794</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.2408055581075021</v>
+        <v>0.4276808483990303</v>
       </c>
       <c r="D223" t="n">
-        <v>0.07519536309600308</v>
+        <v>0.3648703104103902</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -4838,13 +4838,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.9266472654939988</v>
+        <v>0.04478920027664345</v>
       </c>
       <c r="C224" t="n">
-        <v>-1.083855137000628</v>
+        <v>0.2859978085806678</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.7760222640330104</v>
+        <v>0.6692129911426884</v>
       </c>
       <c r="E224" t="n">
         <v>16</v>
@@ -4858,13 +4858,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.33066933265591</v>
+        <v>0.2074489524844318</v>
       </c>
       <c r="C225" t="n">
-        <v>-0.2408050841075264</v>
+        <v>0.4276809593061413</v>
       </c>
       <c r="D225" t="n">
-        <v>0.07519603438561724</v>
+        <v>0.3648700882094271</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -4878,13 +4878,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.8451024347996493</v>
+        <v>0.05464737959548319</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.9479131394428438</v>
+        <v>0.2477374994474193</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.9376759181318082</v>
+        <v>0.6976151209570975</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -4898,13 +4898,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.3315993001789644</v>
+        <v>0.1477264609110762</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.5219368111021094</v>
+        <v>0.3527229685411019</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.3217488753483345</v>
+        <v>0.4995505705478221</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -4918,13 +4918,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.33066933265591</v>
+        <v>0.2074489524844318</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.2408050841075264</v>
+        <v>0.4276809593061413</v>
       </c>
       <c r="D228" t="n">
-        <v>0.07519603438561724</v>
+        <v>0.3648700882094271</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -4938,13 +4938,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.33066933265591</v>
+        <v>0.2074489524844318</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.2408050841075264</v>
+        <v>0.4276809593061413</v>
       </c>
       <c r="D229" t="n">
-        <v>0.07519603438561724</v>
+        <v>0.3648700882094271</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -4958,13 +4958,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.33066933265591</v>
+        <v>0.2074473097695507</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.2408120804164492</v>
+        <v>0.4276793222874368</v>
       </c>
       <c r="D230" t="n">
-        <v>0.07518612599670264</v>
+        <v>0.3648733679430123</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -4978,13 +4978,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.33066933265591</v>
+        <v>0.2074489524844246</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.2408050841075569</v>
+        <v>0.4276809593061339</v>
       </c>
       <c r="D231" t="n">
-        <v>0.075196034385574</v>
+        <v>0.3648700882094414</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -4998,13 +4998,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.33066933265591</v>
+        <v>0.2074489524844318</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.2408050841075264</v>
+        <v>0.4276809593061413</v>
       </c>
       <c r="D232" t="n">
-        <v>0.07519603438561724</v>
+        <v>0.3648700882094271</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -5018,13 +5018,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.3306582977114727</v>
+        <v>0.2074527730739326</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.2407947947534343</v>
+        <v>0.4276791727017189</v>
       </c>
       <c r="D233" t="n">
-        <v>0.07519603438561724</v>
+        <v>0.3648680542243485</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -5038,13 +5038,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.8108721826219384</v>
+        <v>0.05112425071323926</v>
       </c>
       <c r="C234" t="n">
-        <v>-1.000015648711158</v>
+        <v>0.2344784052491097</v>
       </c>
       <c r="D234" t="n">
-        <v>-1.000111646884608</v>
+        <v>0.714397344037651</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -5058,13 +5058,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.33066933265591</v>
+        <v>0.2074489524844318</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.2408050841075264</v>
+        <v>0.4276809593061413</v>
       </c>
       <c r="D235" t="n">
-        <v>0.07519603438561724</v>
+        <v>0.3648700882094271</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -5078,13 +5078,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.33066933265591</v>
+        <v>0.2074489524844318</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.2408050841075264</v>
+        <v>0.4276809593061413</v>
       </c>
       <c r="D236" t="n">
-        <v>0.07519603438561724</v>
+        <v>0.3648700882094271</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -5098,13 +5098,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.3306693428105983</v>
+        <v>0.2074489511967499</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.2408050841075264</v>
+        <v>0.4276809632810503</v>
       </c>
       <c r="D237" t="n">
-        <v>0.07519604842421392</v>
+        <v>0.3648700855222</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -5118,13 +5118,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.33066933265591</v>
+        <v>0.2074489524844318</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.2408050841075264</v>
+        <v>0.4276809593061413</v>
       </c>
       <c r="D238" t="n">
-        <v>0.07519603438561724</v>
+        <v>0.3648700882094271</v>
       </c>
       <c r="E238" t="n">
         <v>17</v>
@@ -5138,13 +5138,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.33066933265591</v>
+        <v>0.2074489524844318</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.2408050841075264</v>
+        <v>0.4276809593061413</v>
       </c>
       <c r="D239" t="n">
-        <v>0.07519603438561724</v>
+        <v>0.3648700882094271</v>
       </c>
       <c r="E239" t="n">
         <v>17</v>
@@ -5158,13 +5158,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-1.136815718903864</v>
+        <v>0.06368864518941234</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.8560512724091409</v>
+        <v>0.75612639040477</v>
       </c>
       <c r="D240" t="n">
-        <v>1.170810924713411</v>
+        <v>0.1801849644058178</v>
       </c>
       <c r="E240" t="n">
         <v>17</v>
@@ -5178,13 +5178,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.427508691426049</v>
+        <v>0.09878479601003472</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.7532142828162287</v>
+        <v>0.2889678631214479</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.6684099457575025</v>
+        <v>0.6122473408685174</v>
       </c>
       <c r="E241" t="n">
         <v>17</v>
@@ -5198,13 +5198,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.3727467327922874</v>
+        <v>0.2015439603018037</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.2509062682685587</v>
+        <v>0.4419325537309233</v>
       </c>
       <c r="D242" t="n">
-        <v>0.1288716227081391</v>
+        <v>0.3565234859672728</v>
       </c>
       <c r="E242" t="n">
         <v>17</v>
@@ -5218,13 +5218,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.8960115267773029</v>
+        <v>0.04597809453275453</v>
       </c>
       <c r="C243" t="n">
-        <v>-1.063908412193504</v>
+        <v>0.2684732691439217</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.8497616842819066</v>
+        <v>0.6855486363233237</v>
       </c>
       <c r="E243" t="n">
         <v>17</v>
@@ -5238,13 +5238,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.6317091626430877</v>
+        <v>0.1658566473900435</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.2414912485234489</v>
+        <v>0.5474574009319747</v>
       </c>
       <c r="D244" t="n">
-        <v>0.4810341638595411</v>
+        <v>0.2866859516779816</v>
       </c>
       <c r="E244" t="n">
         <v>17</v>
@@ -5258,13 +5258,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.6923050583509669</v>
+        <v>0.07417233692472069</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.9126186640757806</v>
+        <v>0.388369821336195</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.3149440413915307</v>
+        <v>0.5374578417390842</v>
       </c>
       <c r="E245" t="n">
         <v>17</v>
@@ -5278,13 +5278,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.3306692505263536</v>
+        <v>0.2074474677690278</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.2408114522607426</v>
+        <v>0.4276794393583099</v>
       </c>
       <c r="D246" t="n">
-        <v>0.07518691428798836</v>
+        <v>0.364873092872662</v>
       </c>
       <c r="E246" t="n">
         <v>17</v>
@@ -5298,13 +5298,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.3306678037319402</v>
+        <v>0.2074494817398157</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.2408036589110657</v>
+        <v>0.4276807117586759</v>
       </c>
       <c r="D247" t="n">
-        <v>0.0751960342782703</v>
+        <v>0.364869806501508</v>
       </c>
       <c r="E247" t="n">
         <v>17</v>
@@ -5318,13 +5318,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.8513262657623647</v>
+        <v>0.06652541821047371</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.9651283181195731</v>
+        <v>0.4725036404173064</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.02672062179352631</v>
+        <v>0.4609709413722202</v>
       </c>
       <c r="E248" t="n">
         <v>17</v>
@@ -5338,13 +5338,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.1238749057738536</v>
+        <v>0.0508292190295075</v>
       </c>
       <c r="C249" t="n">
-        <v>-1.140441620974986</v>
+        <v>0.1195092404666433</v>
       </c>
       <c r="D249" t="n">
-        <v>-1.623027399042432</v>
+        <v>0.8296615405038493</v>
       </c>
       <c r="E249" t="n">
         <v>17</v>
@@ -5358,13 +5358,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.2217113242890893</v>
+        <v>0.08139994992195833</v>
       </c>
       <c r="C250" t="n">
-        <v>-0.9434558216321505</v>
+        <v>0.2258160212515808</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.9388543450830571</v>
+        <v>0.6927840288264606</v>
       </c>
       <c r="E250" t="n">
         <v>17</v>
@@ -5378,13 +5378,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.3815187578591847</v>
+        <v>0.07359629479438051</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.9402195686466641</v>
+        <v>0.2250676191508998</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.9827846858340683</v>
+        <v>0.7013360860547195</v>
       </c>
       <c r="E251" t="n">
         <v>17</v>
@@ -5398,13 +5398,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.7468376771102384</v>
+        <v>0.08898437245474586</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.7675447765341407</v>
+        <v>0.4962965960198791</v>
       </c>
       <c r="D252" t="n">
-        <v>0.1133791361787295</v>
+        <v>0.4147190315253749</v>
       </c>
       <c r="E252" t="n">
         <v>17</v>
@@ -5418,13 +5418,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.6691147082336193</v>
+        <v>0.06647659318276353</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.8647404372044394</v>
+        <v>0.2013745325180087</v>
       </c>
       <c r="D253" t="n">
-        <v>-1.158860550945849</v>
+        <v>0.7321488742992278</v>
       </c>
       <c r="E253" t="n">
         <v>17</v>
@@ -5438,13 +5438,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.3306693327114383</v>
+        <v>0.2047271012451236</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.2523869853753634</v>
+        <v>0.4249615753159625</v>
       </c>
       <c r="D254" t="n">
-        <v>0.05879425675240943</v>
+        <v>0.3703113234389137</v>
       </c>
       <c r="E254" t="n">
         <v>17</v>
@@ -5458,13 +5458,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.4713577312233551</v>
+        <v>0.1179027504270259</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.6218247076966622</v>
+        <v>0.337363631097305</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.4502487780229371</v>
+        <v>0.544733618475669</v>
       </c>
       <c r="E255" t="n">
         <v>17</v>
@@ -5478,13 +5478,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.7450974970807603</v>
+        <v>0.05407375232649371</v>
       </c>
       <c r="C256" t="n">
-        <v>-1.033839741599037</v>
+        <v>0.2733462644955236</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.8105180334917849</v>
+        <v>0.6725799831779827</v>
       </c>
       <c r="E256" t="n">
         <v>17</v>
@@ -5498,13 +5498,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.3305452329144912</v>
+        <v>0.1954167179215373</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.2919595119302726</v>
+        <v>0.4154385235810769</v>
       </c>
       <c r="D257" t="n">
-        <v>0.002382285293481959</v>
+        <v>0.3891447584973857</v>
       </c>
       <c r="E257" t="n">
         <v>17</v>
@@ -5518,13 +5518,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.3306662509858397</v>
+        <v>0.2038918129900542</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.2559394361619231</v>
+        <v>0.4241237172063594</v>
       </c>
       <c r="D258" t="n">
-        <v>0.05376616734963265</v>
+        <v>0.3719844698035861</v>
       </c>
       <c r="E258" t="n">
         <v>17</v>
@@ -5538,13 +5538,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.5358980346730449</v>
+        <v>0.1278676651564734</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.5374181387249218</v>
+        <v>0.3782180823845172</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.2826806729482209</v>
+        <v>0.4939142524590096</v>
       </c>
       <c r="E259" t="n">
         <v>17</v>
@@ -5558,13 +5558,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0.3056894514692503</v>
+        <v>0.3029183866220907</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.183952197874266</v>
+        <v>0.2184290569669323</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.730347775968163</v>
+        <v>0.4786525564109769</v>
       </c>
       <c r="E260" t="n">
         <v>17</v>
@@ -5578,13 +5578,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>0.04906825718331265</v>
+        <v>0.2656108532964562</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.2091130878214668</v>
+        <v>0.3067881923367997</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.3171844236526836</v>
+        <v>0.427600954366744</v>
       </c>
       <c r="E261" t="n">
         <v>17</v>
@@ -5598,13 +5598,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-1.090091535301747</v>
+        <v>0.03519590600008957</v>
       </c>
       <c r="C262" t="n">
-        <v>-1.219307079993288</v>
+        <v>0.3307800562969356</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.6095562806533078</v>
+        <v>0.6340240377029746</v>
       </c>
       <c r="E262" t="n">
         <v>17</v>
@@ -5618,13 +5618,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.33066933265591</v>
+        <v>0.2074489451380833</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.2408051153947428</v>
+        <v>0.4276809519808595</v>
       </c>
       <c r="D263" t="n">
-        <v>0.0751959900505353</v>
+        <v>0.3648701028810572</v>
       </c>
       <c r="E263" t="n">
         <v>17</v>
@@ -5638,13 +5638,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-1.022180827106644</v>
+        <v>0.1102965469107946</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.2738971516702818</v>
+        <v>0.7017542141149574</v>
       </c>
       <c r="D264" t="n">
-        <v>1.051977724189495</v>
+        <v>0.187949238974248</v>
       </c>
       <c r="E264" t="n">
         <v>18</v>
@@ -5658,13 +5658,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.598450210095574</v>
+        <v>0.1819315948888122</v>
       </c>
       <c r="C265" t="n">
-        <v>-0.1655985178858731</v>
+        <v>0.5466030025163928</v>
       </c>
       <c r="D265" t="n">
-        <v>0.5092376831458044</v>
+        <v>0.2714654025947948</v>
       </c>
       <c r="E265" t="n">
         <v>18</v>
@@ -5678,13 +5678,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>1.161608925497057</v>
+        <v>0.7191607196041666</v>
       </c>
       <c r="C266" t="n">
-        <v>0.5515095357770546</v>
+        <v>0.1250058574450206</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.4266800620534257</v>
+        <v>0.1558334229508127</v>
       </c>
       <c r="E266" t="n">
         <v>18</v>
@@ -5698,13 +5698,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.484000231732043</v>
+        <v>0.272237359534271</v>
       </c>
       <c r="C267" t="n">
-        <v>0.6464240788753419</v>
+        <v>0.646608783831303</v>
       </c>
       <c r="D267" t="n">
-        <v>1.341665115612559</v>
+        <v>0.08115385663442637</v>
       </c>
       <c r="E267" t="n">
         <v>18</v>
@@ -5718,13 +5718,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>0.7513516888885081</v>
+        <v>0.671740838620188</v>
       </c>
       <c r="C268" t="n">
-        <v>0.7204451133536359</v>
+        <v>0.2122543058804738</v>
       </c>
       <c r="D268" t="n">
-        <v>0.01365795406514998</v>
+        <v>0.1160048554993382</v>
       </c>
       <c r="E268" t="n">
         <v>18</v>
@@ -5738,13 +5738,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>1.096964359866613</v>
+        <v>0.5612084974482403</v>
       </c>
       <c r="C269" t="n">
-        <v>0.1857644603988775</v>
+        <v>0.1300320212481387</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.6892068804397345</v>
+        <v>0.308759481303621</v>
       </c>
       <c r="E269" t="n">
         <v>18</v>
@@ -5758,13 +5758,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-1.216838394066063</v>
+        <v>0.091322627945657</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.3159178355181574</v>
+        <v>0.6897181666711282</v>
       </c>
       <c r="D270" t="n">
-        <v>0.8739869275721335</v>
+        <v>0.218959205383215</v>
       </c>
       <c r="E270" t="n">
         <v>18</v>
@@ -5778,13 +5778,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>1.276997124862198</v>
+        <v>0.8090223663884402</v>
       </c>
       <c r="C271" t="n">
-        <v>0.9095286541064168</v>
+        <v>0.1183802878530965</v>
       </c>
       <c r="D271" t="n">
-        <v>0.02036681429285965</v>
+        <v>0.07259734575846334</v>
       </c>
       <c r="E271" t="n">
         <v>18</v>
@@ -5798,13 +5798,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.3823395319938805</v>
+        <v>0.1835700596904588</v>
       </c>
       <c r="C272" t="n">
-        <v>-0.3177810737353272</v>
+        <v>0.4268684305964494</v>
       </c>
       <c r="D272" t="n">
-        <v>0.02412767656530323</v>
+        <v>0.3895615097130919</v>
       </c>
       <c r="E272" t="n">
         <v>18</v>
@@ -5818,13 +5818,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>0.1334819683150779</v>
+        <v>0.2150981535419935</v>
       </c>
       <c r="C273" t="n">
-        <v>-0.3754761920600761</v>
+        <v>0.1808481011851511</v>
       </c>
       <c r="D273" t="n">
-        <v>-1.126887066074467</v>
+        <v>0.6040537452728555</v>
       </c>
       <c r="E273" t="n">
         <v>18</v>
@@ -5838,13 +5838,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.6363468748908812</v>
+        <v>0.1760631710828194</v>
       </c>
       <c r="C274" t="n">
-        <v>-0.2168578849217526</v>
+        <v>0.430121004771842</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.08050922557303446</v>
+        <v>0.3938158241453387</v>
       </c>
       <c r="E274" t="n">
         <v>18</v>
@@ -5858,13 +5858,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.8189176349038101</v>
+        <v>0.1120674766342721</v>
       </c>
       <c r="C275" t="n">
-        <v>-0.493099315631263</v>
+        <v>0.6171249235555553</v>
       </c>
       <c r="D275" t="n">
-        <v>0.6640957710739871</v>
+        <v>0.2708075998101726</v>
       </c>
       <c r="E275" t="n">
         <v>18</v>
@@ -5878,13 +5878,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.2739495284923274</v>
+        <v>0.2787270865641701</v>
       </c>
       <c r="C276" t="n">
-        <v>0.06899573541961282</v>
+        <v>0.5095649145439241</v>
       </c>
       <c r="D276" t="n">
-        <v>0.6725763988379183</v>
+        <v>0.2117079988919061</v>
       </c>
       <c r="E276" t="n">
         <v>18</v>
@@ -5898,13 +5898,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.2699920423191217</v>
+        <v>0.2765788245618641</v>
       </c>
       <c r="C277" t="n">
-        <v>0.05071934958349542</v>
+        <v>0.4955959823661495</v>
       </c>
       <c r="D277" t="n">
-        <v>0.5717735735650913</v>
+        <v>0.2278251930719863</v>
       </c>
       <c r="E277" t="n">
         <v>18</v>
@@ -5918,13 +5918,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>0.2738174032726587</v>
+        <v>0.2810985978509477</v>
       </c>
       <c r="C278" t="n">
-        <v>-0.2386697800314571</v>
+        <v>0.261561218878378</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.4288795714859794</v>
+        <v>0.4573401832706739</v>
       </c>
       <c r="E278" t="n">
         <v>18</v>
@@ -5938,13 +5938,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>-1.340793828710681</v>
+        <v>0.06233984611009818</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.6238850054132627</v>
+        <v>0.6227730679877149</v>
       </c>
       <c r="D279" t="n">
-        <v>0.4952947845681712</v>
+        <v>0.3148870859021863</v>
       </c>
       <c r="E279" t="n">
         <v>18</v>
@@ -5958,13 +5958,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.4751817393462687</v>
+        <v>0.1678439178997709</v>
       </c>
       <c r="C280" t="n">
-        <v>-0.3517434669215995</v>
+        <v>0.3688147830474136</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.2941972331049746</v>
+        <v>0.4633412990528153</v>
       </c>
       <c r="E280" t="n">
         <v>18</v>
@@ -5978,13 +5978,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>-1.438990839338954</v>
+        <v>0.07963992251110226</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.2685065899218802</v>
+        <v>0.6986502310225927</v>
       </c>
       <c r="D281" t="n">
-        <v>0.8402317420716758</v>
+        <v>0.2217098464663049</v>
       </c>
       <c r="E281" t="n">
         <v>18</v>
@@ -5998,13 +5998,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.4171576083786114</v>
+        <v>0.2494638653385151</v>
       </c>
       <c r="C282" t="n">
-        <v>0.06330200184760074</v>
+        <v>0.5134122037546969</v>
       </c>
       <c r="D282" t="n">
-        <v>0.4835379702378623</v>
+        <v>0.2371239309067882</v>
       </c>
       <c r="E282" t="n">
         <v>18</v>
@@ -6018,13 +6018,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.378392511466606</v>
+        <v>0.1934549621449573</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.2857535130431412</v>
+        <v>0.4722516507454677</v>
       </c>
       <c r="D283" t="n">
-        <v>0.2727778914979855</v>
+        <v>0.3342933871095749</v>
       </c>
       <c r="E283" t="n">
         <v>18</v>
@@ -6038,13 +6038,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-1.261268221614292</v>
+        <v>0.08184628961546576</v>
       </c>
       <c r="C284" t="n">
-        <v>-0.390333624311015</v>
+        <v>0.6786629068780162</v>
       </c>
       <c r="D284" t="n">
-        <v>0.7878562055847006</v>
+        <v>0.2394908035065177</v>
       </c>
       <c r="E284" t="n">
         <v>18</v>
@@ -6058,13 +6058,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.00363380620551057</v>
+        <v>0.3532067803584633</v>
       </c>
       <c r="C285" t="n">
-        <v>0.1345440278896188</v>
+        <v>0.4190846733332075</v>
       </c>
       <c r="D285" t="n">
-        <v>0.4414483588185599</v>
+        <v>0.2277085463083295</v>
       </c>
       <c r="E285" t="n">
         <v>18</v>
@@ -6078,13 +6078,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>1.646357014978542</v>
+        <v>0.8514679286098235</v>
       </c>
       <c r="C286" t="n">
-        <v>0.8722227904792653</v>
+        <v>0.0758207016794588</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.07998123697313216</v>
+        <v>0.07271136971071773</v>
       </c>
       <c r="E286" t="n">
         <v>18</v>
@@ -6098,13 +6098,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.7674342531627324</v>
+        <v>0.1480441735088912</v>
       </c>
       <c r="C287" t="n">
-        <v>-0.2172775038522735</v>
+        <v>0.6444009721376627</v>
       </c>
       <c r="D287" t="n">
-        <v>0.9188927560363992</v>
+        <v>0.2075548543534463</v>
       </c>
       <c r="E287" t="n">
         <v>18</v>
@@ -6118,13 +6118,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.32870554772042</v>
+        <v>0.2252572597601958</v>
       </c>
       <c r="C288" t="n">
-        <v>-0.1652033260193191</v>
+        <v>0.4425200007759297</v>
       </c>
       <c r="D288" t="n">
-        <v>0.1697877175303079</v>
+        <v>0.3322227394638748</v>
       </c>
       <c r="E288" t="n">
         <v>18</v>
@@ -6138,13 +6138,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>0.0461069184810276</v>
+        <v>0.4148087048969074</v>
       </c>
       <c r="C289" t="n">
-        <v>0.3844736967966614</v>
+        <v>0.4565152055185941</v>
       </c>
       <c r="D289" t="n">
-        <v>1.020315949529181</v>
+        <v>0.1286760895844985</v>
       </c>
       <c r="E289" t="n">
         <v>18</v>
@@ -6158,13 +6158,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-1.046735786209389</v>
+        <v>0.1408000824901703</v>
       </c>
       <c r="C290" t="n">
-        <v>-0.0922125625856946</v>
+        <v>0.5740614940362713</v>
       </c>
       <c r="D290" t="n">
-        <v>0.3867020409432175</v>
+        <v>0.2851384234735582</v>
       </c>
       <c r="E290" t="n">
         <v>18</v>
@@ -6178,13 +6178,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.554326356117065</v>
+        <v>0.2182542325360232</v>
       </c>
       <c r="C291" t="n">
-        <v>-0.03081521917952404</v>
+        <v>0.472862379413695</v>
       </c>
       <c r="D291" t="n">
-        <v>0.1516220387847766</v>
+        <v>0.3088833880502819</v>
       </c>
       <c r="E291" t="n">
         <v>18</v>
@@ -6198,13 +6198,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>0.8049677658220964</v>
+        <v>0.6859830000237513</v>
       </c>
       <c r="C292" t="n">
-        <v>0.661652042650134</v>
+        <v>0.1739715774936045</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.5252974482416299</v>
+        <v>0.1400454224826442</v>
       </c>
       <c r="E292" t="n">
         <v>18</v>
